--- a/Backlogs.xlsx
+++ b/Backlogs.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricky\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Sprint2" sheetId="3" r:id="rId3"/>
     <sheet name="Sprint3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
   <si>
     <t>Display menu screen on program start</t>
   </si>
@@ -180,12 +175,75 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>SPRINT BACKLOG 1</t>
+  </si>
+  <si>
+    <t>User story</t>
+  </si>
+  <si>
+    <t>Time estimation</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Acceptance criteria</t>
+  </si>
+  <si>
+    <t>As a player I want to have a menu with 4 options, so 
+that I can control the game</t>
+  </si>
+  <si>
+    <t>As a player I want to view the highscore, so that I can view who has the highest score</t>
+  </si>
+  <si>
+    <t>As a player I want to read the rules from the game, so that I know how the game works</t>
+  </si>
+  <si>
+    <t>As a player I want to be able to start and stop the game so that
+ I can play the game and end whenever I want</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Loading the display with the menu items
+2. Showing the text in the middle of the screen
+3. Be sure the game screen keeps open when no action performed
+4. Create the menu
+</t>
+  </si>
+  <si>
+    <t>1. Make start button
+2. Make stop button
+3. Close the game when pressed on X</t>
+  </si>
+  <si>
+    <t>1. Make a highscore button
+2. Go to highscore page</t>
+  </si>
+  <si>
+    <t>1. Make rules button
+2. Make a rules page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have a working menu
+</t>
+  </si>
+  <si>
+    <t>Have working start and
+exit buttons</t>
+  </si>
+  <si>
+    <t>Have a highscore button</t>
+  </si>
+  <si>
+    <t>Have a rules button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -270,6 +328,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -331,7 +404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -383,7 +456,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -577,7 +650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -587,23 +660,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="72.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="72.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -626,7 +699,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -643,7 +716,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -660,7 +733,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -677,7 +750,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -691,7 +764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -705,7 +778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -719,7 +792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -736,7 +809,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -750,7 +823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -764,7 +837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -778,7 +851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -792,7 +865,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -806,7 +879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -820,7 +893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -834,7 +907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -848,7 +921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -862,7 +935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -876,7 +949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -890,7 +963,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -904,7 +977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -918,7 +991,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -932,7 +1005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -946,7 +1019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -960,7 +1033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -974,7 +1047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -988,7 +1061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1002,7 +1075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1016,7 +1089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1030,7 +1103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1052,12 +1125,131 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="13">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="13">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>6</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1068,7 +1260,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1082,7 +1274,7 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Backlogs.xlsx
+++ b/Backlogs.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maher\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="80">
   <si>
     <t>Display menu screen on program start</t>
   </si>
@@ -192,18 +197,10 @@
     <t>Acceptance criteria</t>
   </si>
   <si>
-    <t>As a player I want to have a menu with 4 options, so 
-that I can control the game</t>
-  </si>
-  <si>
     <t>As a player I want to view the highscore, so that I can view who has the highest score</t>
   </si>
   <si>
     <t>As a player I want to read the rules from the game, so that I know how the game works</t>
-  </si>
-  <si>
-    <t>As a player I want to be able to start and stop the game so that
- I can play the game and end whenever I want</t>
   </si>
   <si>
     <t xml:space="preserve">1. Loading the display with the menu items
@@ -239,11 +236,53 @@
   <si>
     <t>Have a rules button</t>
   </si>
+  <si>
+    <t>SPRINT BACKLOG 2</t>
+  </si>
+  <si>
+    <t>As a player I want to have a menu with 4 options, so that I can control the game</t>
+  </si>
+  <si>
+    <t>As a player I want to be able to start and stop the game so that I can play the game and end whenever I want</t>
+  </si>
+  <si>
+    <t>As a player I want to be able to select the amount of players that will participate so that I can play with friends .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a player I want to see the game board so that I can see whats happening </t>
+  </si>
+  <si>
+    <t>As a player I want to see the exit button so that I can exit the game easily</t>
+  </si>
+  <si>
+    <t>As a player I want the game to change turns to another player so that each player gets a his turn</t>
+  </si>
+  <si>
+    <t>As a player I want the game to announce the winner so that everyone knows who won</t>
+  </si>
+  <si>
+    <t>As a player I want the game to have game cards so that we can play it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a player I want a base deck so that I can start the game easily </t>
+  </si>
+  <si>
+    <t>As a Player I want the Pawns to have stats so that I can tell which pawn beats which</t>
+  </si>
+  <si>
+    <t>As a Player I want a special deck so I can receive spiecal cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a player I want to have a player deck so that I tell which cards I have  </t>
+  </si>
+  <si>
+    <t>As a player I want to have a discarded deck so that when I pull a 7th card I can discard it and when the base deck is empty it has a replacement</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -344,9 +383,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -404,7 +445,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -456,7 +497,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -650,7 +691,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -660,23 +701,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="72.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="72.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -699,7 +740,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -716,7 +757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -733,7 +774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -750,7 +791,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -763,8 +804,11 @@
       <c r="D6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -777,8 +821,11 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -791,8 +838,11 @@
       <c r="D8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -805,11 +855,11 @@
       <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -823,7 +873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -837,7 +887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -850,8 +900,11 @@
       <c r="D12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -864,8 +917,11 @@
       <c r="D13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -878,8 +934,11 @@
       <c r="D14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -892,8 +951,11 @@
       <c r="D15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -906,8 +968,11 @@
       <c r="D16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -921,7 +986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -934,8 +999,11 @@
       <c r="D18" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -948,8 +1016,11 @@
       <c r="D19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -962,8 +1033,11 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -977,7 +1051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -991,7 +1065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1005,7 +1079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1019,7 +1093,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1033,7 +1107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1047,7 +1121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1061,7 +1135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1075,7 +1149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1089,7 +1163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1103,7 +1177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1128,18 +1202,18 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="17" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>51</v>
       </c>
@@ -1149,7 +1223,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1169,12 +1243,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>0</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>22</v>
@@ -1183,18 +1257,18 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>22</v>
@@ -1203,18 +1277,18 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>22</v>
@@ -1223,18 +1297,18 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>22</v>
@@ -1243,10 +1317,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1256,12 +1330,226 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="41.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="17" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+    </row>
+    <row r="2" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+    </row>
+    <row r="3" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="13">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>4</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>6</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>10</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>11</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>12</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>13</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>14</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>16</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>17</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>18</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1274,7 +1562,7 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Backlogs.xlsx
+++ b/Backlogs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maher\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maher\OneDrive\Documents\Informatica\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="101">
   <si>
     <t>Display menu screen on program start</t>
   </si>
@@ -223,60 +223,155 @@
 2. Make a rules page</t>
   </si>
   <si>
-    <t xml:space="preserve">Have a working menu
+    <t>Have a rules button</t>
+  </si>
+  <si>
+    <t>SPRINT BACKLOG 2</t>
+  </si>
+  <si>
+    <t>As a player I want to have a menu with 4 options, so that I can control the game</t>
+  </si>
+  <si>
+    <t>As a player I want to be able to start and stop the game so that I can play the game and end whenever I want</t>
+  </si>
+  <si>
+    <t>As a player I want to be able to select the amount of players that will participate so that I can play with friends .</t>
+  </si>
+  <si>
+    <t>As a player I want to see the exit button so that I can exit the game easily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a player I want a base deck so that I can start the game easily </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a player I want to have a player deck so that I tell which cards I have  </t>
+  </si>
+  <si>
+    <t>As a player I want to have a discarded deck so that when I pull a 7th card I can discard it and when the base deck is empty it has a replacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can choose the amount of player </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a player I want to see the game board so that I can play the game </t>
+  </si>
+  <si>
+    <t>Exit button should be easy to find and working</t>
+  </si>
+  <si>
+    <t>The game must have a board and the board must be clear</t>
+  </si>
+  <si>
+    <t>As a player I want the game to change turns so that each player gets a turn</t>
+  </si>
+  <si>
+    <t>The game must give each player a turn and goes on till the end</t>
+  </si>
+  <si>
+    <t>At the end of the game , the game must announce the winner</t>
+  </si>
+  <si>
+    <t>The game must contain game cards</t>
+  </si>
+  <si>
+    <t>Each player must have a base deck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Having a working menu with 4 options
 </t>
   </si>
   <si>
-    <t>Have working start and
+    <t>Having a working start and
 exit buttons</t>
   </si>
   <si>
-    <t>Have a highscore button</t>
-  </si>
-  <si>
-    <t>Have a rules button</t>
-  </si>
-  <si>
-    <t>SPRINT BACKLOG 2</t>
-  </si>
-  <si>
-    <t>As a player I want to have a menu with 4 options, so that I can control the game</t>
-  </si>
-  <si>
-    <t>As a player I want to be able to start and stop the game so that I can play the game and end whenever I want</t>
-  </si>
-  <si>
-    <t>As a player I want to be able to select the amount of players that will participate so that I can play with friends .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player I want to see the game board so that I can see whats happening </t>
-  </si>
-  <si>
-    <t>As a player I want to see the exit button so that I can exit the game easily</t>
-  </si>
-  <si>
-    <t>As a player I want the game to change turns to another player so that each player gets a his turn</t>
-  </si>
-  <si>
-    <t>As a player I want the game to announce the winner so that everyone knows who won</t>
-  </si>
-  <si>
-    <t>As a player I want the game to have game cards so that we can play it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player I want a base deck so that I can start the game easily </t>
-  </si>
-  <si>
-    <t>As a Player I want the Pawns to have stats so that I can tell which pawn beats which</t>
-  </si>
-  <si>
-    <t>As a Player I want a special deck so I can receive spiecal cards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player I want to have a player deck so that I tell which cards I have  </t>
-  </si>
-  <si>
-    <t>As a player I want to have a discarded deck so that when I pull a 7th card I can discard it and when the base deck is empty it has a replacement</t>
+    <t xml:space="preserve">Have a highscore button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a player I want the game to announce the winner so that everyone knows who won at the end </t>
+  </si>
+  <si>
+    <t>As a player I want the game to have game cards so that we can play with it</t>
+  </si>
+  <si>
+    <t>As a Player I want the Pawns to have stats so that I can tell which pawns beats which</t>
+  </si>
+  <si>
+    <t>Each player must have a discard deck that is replaceable</t>
+  </si>
+  <si>
+    <t>Each player must have a player deck that reviews cards</t>
+  </si>
+  <si>
+    <t>Each player must have a spiecal deck that gives you spiecal cards</t>
+  </si>
+  <si>
+    <t>Each pawn must have stats</t>
+  </si>
+  <si>
+    <t>As a player I want a special deck so that I can receive spiecal cards</t>
+  </si>
+  <si>
+    <t>1.make buttons to select the amount of players</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Design board game.
+2. Implement it in game.
+3. If you press start and after you choose the amount of players show the board.
+4. Make it clickable
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Create an exit button
+2. Make it clickable
+3. If you click exit or the X button in the corner it will close
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Give players turns
+2.  Give them options in the turns
+3. Make it possible to end a turn
+4. Make a time limit per term
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Make a win screen
+2. Redirect to the win screen after game has ended
+3. Save the highscore
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Make a base deck
+2. Make it clickable
+3. Make it contain cards
+4. If empty replace it with discarded deck
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Make the different kinds of pawns
+2. Give them stats
+3. Make given amount of pawns per type
+4. Make them different color for each team
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Make a special deck
+2. Add special cards
+3. Make player be able to receive from this deck
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Make player decks
+2. Add card pulled from the base decks by the player
+3. Make them selectable
+4. Organize by type
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Make a discarded deck
+2. Add every 6th card from a player deck into this deck
+3. When the base deck contains no cards replace it by this deck
+</t>
   </si>
 </sst>
 </file>
@@ -343,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -385,6 +480,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1202,7 +1303,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1248,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>22</v>
@@ -1260,7 +1361,7 @@
         <v>58</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1268,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>22</v>
@@ -1280,7 +1381,7 @@
         <v>59</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1300,7 +1401,7 @@
         <v>60</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1320,7 +1421,7 @@
         <v>61</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1332,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1346,7 +1447,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="17" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -1390,9 +1491,7 @@
       <c r="F2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -1415,7 +1514,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>22</v>
@@ -1423,15 +1522,19 @@
       <c r="D3" s="13">
         <v>4.5138888888888888E-2</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>22</v>
@@ -1439,15 +1542,19 @@
       <c r="D4" s="13">
         <v>6.25E-2</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E4" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>6</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>22</v>
@@ -1455,102 +1562,176 @@
       <c r="D5" s="13">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E5" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>10</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D6" s="13">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D7" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>12</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D8" s="13">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>13</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D9" s="13">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>14</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D10" s="13">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>16</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D11" s="13">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>17</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D12" s="13">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>18</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>22</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Backlogs.xlsx
+++ b/Backlogs.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricky\Desktop\inf1e-sprint2-groep5-po\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maher\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10848" windowHeight="5664" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -395,12 +395,6 @@
     <t>As a player I want the game to have a setting button so that I can set things in my preference</t>
   </si>
   <si>
-    <t>As a player I want pawns to be displayed and move smoothy so that it makes the game more appealing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player I want the game to have sounds for moving pawn , win screen and spiecal actions to make it more interesting </t>
-  </si>
-  <si>
     <t>As a player I want to be able to pause and resume game so that I cane play freely</t>
   </si>
   <si>
@@ -411,9 +405,6 @@
   </si>
   <si>
     <t>Each player can move their pawns and attack with it</t>
-  </si>
-  <si>
-    <t>As a player I want to be able to take actions so that the game becomse more interesting</t>
   </si>
   <si>
     <t xml:space="preserve">It must be clear which player's turn is this </t>
@@ -527,6 +518,15 @@
     <t>1.add a server.
 2. link the server.
 Make it able to be accessed.</t>
+  </si>
+  <si>
+    <t>As a player I want to be able to take actions so that the game becomes more interesting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a player I want the game to have sounds for moving pawn , win screen and special actions to make it more interesting </t>
+  </si>
+  <si>
+    <t>As a player I want pawns to be displayed and move smoothly so that it makes the game more appealing</t>
   </si>
 </sst>
 </file>
@@ -668,7 +668,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="12" spans="1:7" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>25</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>36</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>37</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>39</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>40</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>41</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>42</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>43</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>44</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>14</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>34</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>35</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>15</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>16</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>17</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>18</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>19</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="22">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>20</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="22">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>21</v>
@@ -1673,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="6" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>74</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>81</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="8" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>82</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="9" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>68</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="10" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>83</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="11" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>88</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="12" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>69</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="13" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>70</v>
@@ -1979,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2022,7 +2022,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>22</v>
@@ -2031,18 +2031,18 @@
         <v>0.125</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>22</v>
@@ -2051,18 +2051,18 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>22</v>
@@ -2071,18 +2071,18 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>22</v>
@@ -2091,18 +2091,18 @@
         <v>0.10347222222222223</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>24</v>
@@ -2111,18 +2111,18 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>24</v>
@@ -2131,18 +2131,18 @@
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>26</v>
@@ -2151,18 +2151,18 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>26</v>
@@ -2171,15 +2171,15 @@
         <v>0.1986111111111111</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>107</v>
@@ -2191,15 +2191,15 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>106</v>
@@ -2211,15 +2211,15 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>105</v>
@@ -2231,18 +2231,18 @@
         <v>0.25</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>23</v>
@@ -2251,15 +2251,15 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>104</v>
@@ -2271,15 +2271,15 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>103</v>
@@ -2291,15 +2291,15 @@
         <v>0.18055555555555555</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>102</v>
@@ -2311,10 +2311,10 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Backlogs.xlsx
+++ b/Backlogs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maher\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricky\OneDrive\Documents\GitHub\informtica-1-project-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="107">
   <si>
     <t>Display menu screen on program start</t>
   </si>
@@ -235,21 +235,9 @@
     <t>As a player I want to be able to start and stop the game so that I can play the game and end whenever I want</t>
   </si>
   <si>
-    <t>As a player I want to be able to select the amount of players that will participate so that I can play with friends .</t>
-  </si>
-  <si>
     <t>As a player I want to see the exit button so that I can exit the game easily</t>
   </si>
   <si>
-    <t xml:space="preserve">As a player I want a base deck so that I can start the game easily </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player I want to have a player deck so that I tell which cards I have  </t>
-  </si>
-  <si>
-    <t>As a player I want to have a discarded deck so that when I pull a 7th card I can discard it and when the base deck is empty it has a replacement</t>
-  </si>
-  <si>
     <t xml:space="preserve">As a player I want to see the game board so that I can play the game </t>
   </si>
   <si>
@@ -266,12 +254,6 @@
   </si>
   <si>
     <t>At the end of the game , the game must announce the winner</t>
-  </si>
-  <si>
-    <t>The game must contain game cards</t>
-  </si>
-  <si>
-    <t>Each player must have a base deck</t>
   </si>
   <si>
     <t xml:space="preserve">Having a working menu with 4 options
@@ -284,25 +266,10 @@
     <t xml:space="preserve">As a player I want the game to announce the winner so that everyone knows who won at the end </t>
   </si>
   <si>
-    <t>As a player I want the game to have game cards so that we can play with it</t>
-  </si>
-  <si>
     <t>As a Player I want the Pawns to have stats so that I can tell which pawns beats which</t>
   </si>
   <si>
-    <t>Each player must have a discard deck that is replaceable</t>
-  </si>
-  <si>
-    <t>Each player must have a player deck that reviews cards</t>
-  </si>
-  <si>
-    <t>Each player must have a spiecal deck that gives you spiecal cards</t>
-  </si>
-  <si>
     <t>Each pawn must have stats</t>
-  </si>
-  <si>
-    <t>As a player I want a special deck so that I can receive spiecal cards</t>
   </si>
   <si>
     <t>1.make buttons to select the amount of players</t>
@@ -334,13 +301,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Make a base deck
-2. Make it clickable
-3. Make it contain cards
-4. If empty replace it with discarded deck
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Make the different kinds of pawns
 2. Give them stats
 3. Make given amount of pawns per type
@@ -348,25 +308,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Make a special deck
-2. Add special cards
-3. Make player be able to receive from this deck
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Make player decks
-2. Add card pulled from the base decks by the player
-3. Make them selectable
-4. Organize by type
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Make a discarded deck
-2. Add every 6th card from a player deck into this deck
-3. When the base deck contains no cards replace it by this deck
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">You can choose the amount of players </t>
   </si>
   <si>
@@ -377,33 +318,12 @@
     <t>Show the highscore of the game when needed by user</t>
   </si>
   <si>
-    <t>As a player I want to be able to play the game against other PC so that it make the game more of a multiplayer</t>
-  </si>
-  <si>
-    <t>As a player I want the game to be able to load previously save game so that I can resume playing it</t>
-  </si>
-  <si>
-    <t>As a player I want to be ale to save a game so that I can load it later</t>
-  </si>
-  <si>
-    <t>As a player I want the computer to be able to play well so that it will can play against humans</t>
-  </si>
-  <si>
-    <t>As a player I want to be able to play versus a computer so that I can play solo</t>
-  </si>
-  <si>
-    <t>As a player I want the game to have a setting button so that I can set things in my preference</t>
-  </si>
-  <si>
     <t>As a player I want to be able to pause and resume game so that I cane play freely</t>
   </si>
   <si>
     <t>As a player after a player wins I want a button that returns me to main menu so that I can play again</t>
   </si>
   <si>
-    <t xml:space="preserve">As a player I want to be able to put cards on board so that I can use the cards to win </t>
-  </si>
-  <si>
     <t>Each player can move their pawns and attack with it</t>
   </si>
   <si>
@@ -419,40 +339,13 @@
     <t>As a player I want to be able to place all pawns in their tile so that I can play with it</t>
   </si>
   <si>
-    <t>Each player must be able to use their cards</t>
-  </si>
-  <si>
     <t>The game must include an main menu button at the winner page  that brings you to main menu</t>
   </si>
   <si>
     <t>The game must have  a pause and resume buttons</t>
   </si>
   <si>
-    <t>The game must contain sounds for moving pawns , when a player wins and for spiecal actions</t>
-  </si>
-  <si>
     <t>The game pawns have animation when they get summoned and move</t>
-  </si>
-  <si>
-    <t>The main menu must have setting with resultion..etc</t>
-  </si>
-  <si>
-    <t>There must be a single player mode against a computer</t>
-  </si>
-  <si>
-    <t>The computer must now good tactics to win</t>
-  </si>
-  <si>
-    <t>The computer must have funny interactions when something happens</t>
-  </si>
-  <si>
-    <t>The game progress can be saved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the game progress can be load </t>
-  </si>
-  <si>
-    <t>The game can be played with multible pc against each  other that are  connected</t>
   </si>
   <si>
     <t>1.make pawns
@@ -465,16 +358,6 @@
 </t>
   </si>
   <si>
-    <t>1.Design cards.
-2. Make a class.
-3. Add it into python.</t>
-  </si>
-  <si>
-    <t>1.Make an attack function.
-2.Make a defend function.
-3. Be able to move the ships.</t>
-  </si>
-  <si>
     <t>1.make player classes.
 2.Give them a order.</t>
   </si>
@@ -483,50 +366,23 @@
 2.Make a resume button</t>
   </si>
   <si>
-    <t>1.Find sounds
-2.Implement sounds into game</t>
-  </si>
-  <si>
     <t>1.Make movement look realistic</t>
   </si>
   <si>
-    <t>1.Implement settings button.
-2.add settings that players can alter.</t>
-  </si>
-  <si>
-    <t>1.make an AI.
-2.Make an option to choose if you want to player versus a player or AI</t>
-  </si>
-  <si>
-    <t>1. Make the AI smart by implementing tactics.</t>
-  </si>
-  <si>
-    <t>As a player I want the computer to have funny comments so that it will make the game more fun to play</t>
-  </si>
-  <si>
-    <t>1.Add lines.
-2.Make the AI say them at given times.</t>
-  </si>
-  <si>
-    <t>1.Link database to save game.
-2. be able to add and retrieve saved data.</t>
-  </si>
-  <si>
-    <t>be able to retrieve a saved data and continue from where it left</t>
-  </si>
-  <si>
-    <t>1.add a server.
-2. link the server.
-Make it able to be accessed.</t>
-  </si>
-  <si>
     <t>As a player I want to be able to take actions so that the game becomes more interesting</t>
   </si>
   <si>
-    <t xml:space="preserve">As a player I want the game to have sounds for moving pawn , win screen and special actions to make it more interesting </t>
-  </si>
-  <si>
     <t>As a player I want pawns to be displayed and move smoothly so that it makes the game more appealing</t>
+  </si>
+  <si>
+    <t>SPRINT BACKLOG 3</t>
+  </si>
+  <si>
+    <t>As a player I want to be able to see the names of players that will participate soi know with who i playing</t>
+  </si>
+  <si>
+    <t>1.Make an attack function.
+3. Be able to move the ships.</t>
   </si>
 </sst>
 </file>
@@ -668,7 +524,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -982,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1077,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -1600,7 +1456,7 @@
         <v>58</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1620,7 +1476,7 @@
         <v>59</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1640,7 +1496,7 @@
         <v>60</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1671,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1754,7 +1610,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>22</v>
@@ -1763,10 +1619,10 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
@@ -1774,7 +1630,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>22</v>
@@ -1783,10 +1639,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="72" x14ac:dyDescent="0.3">
@@ -1794,7 +1650,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>22</v>
@@ -1803,10 +1659,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="72" x14ac:dyDescent="0.3">
@@ -1814,7 +1670,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>22</v>
@@ -1823,10 +1679,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
@@ -1834,7 +1690,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>22</v>
@@ -1843,18 +1699,18 @@
         <v>6.25E-2</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>22</v>
@@ -1863,110 +1719,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>13</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="13">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>14</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="13">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>16</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>17</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0.11458333333333333</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>18</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0.125</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1977,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1993,7 +1749,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="B1" s="4"/>
     </row>
@@ -2022,7 +1778,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>22</v>
@@ -2031,10 +1787,10 @@
         <v>0.125</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -2042,7 +1798,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>22</v>
@@ -2051,10 +1807,10 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -2062,259 +1818,79 @@
         <v>9</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="13">
-        <v>0.13194444444444445</v>
+        <v>0.125</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="13">
-        <v>0.10347222222222223</v>
+        <v>0.125</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="13">
-        <v>0.11805555555555557</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" s="13">
-        <v>6.5972222222222224E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>21</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>22</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0.1986111111111111</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>23</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="13">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>24</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="13">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>25</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <v>26</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0.11805555555555557</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <v>27</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <v>28</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="13">
-        <v>0.18055555555555555</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <v>29</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="13">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
